--- a/WebsiteTechWorldBackEnd/src/main/resources/templates/ModelSanPhamTemplate.xlsx
+++ b/WebsiteTechWorldBackEnd/src/main/resources/templates/ModelSanPhamTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACF04B8-7C7D-4499-B759-22239101921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C1633-B23A-447A-8999-40E36C0EE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B43DE9F-2356-4B88-AF05-34F8AFB2CCE1}"/>
   </bookViews>
@@ -128,18 +128,9 @@
     <t>loaiCameraSau</t>
   </si>
   <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>doPhanGiaCameraSau</t>
-  </si>
-  <si>
     <t>khauDoCameraSau</t>
   </si>
   <si>
-    <t>iPhone 30Cường</t>
-  </si>
-  <si>
     <t>Wide, Ultra Wide, Telephoto</t>
   </si>
   <si>
@@ -147,6 +138,15 @@
   </si>
   <si>
     <t>f/1.6, f/2.4, f/2.8</t>
+  </si>
+  <si>
+    <t>doPhanGiaiCameraSau</t>
+  </si>
+  <si>
+    <t>iPhone 30</t>
+  </si>
+  <si>
+    <t>Thường</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82C0B6-B55B-40B7-8DCB-60B61C6A25FE}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,15 +629,15 @@
         <v>29</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>45901</v>
@@ -682,16 +682,16 @@
         <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/WebsiteTechWorldBackEnd/src/main/resources/templates/ModelSanPhamTemplate.xlsx
+++ b/WebsiteTechWorldBackEnd/src/main/resources/templates/ModelSanPhamTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C1633-B23A-447A-8999-40E36C0EE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6F2EFB-E844-4FF8-8F99-87AC3685937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B43DE9F-2356-4B88-AF05-34F8AFB2CCE1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ram</t>
   </si>
@@ -47,19 +47,10 @@
     <t>iOS 17</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
     <t>16GB</t>
   </si>
   <si>
     <t>tenModel</t>
-  </si>
-  <si>
-    <t>trangThai</t>
-  </si>
-  <si>
-    <t>namRaMat</t>
   </si>
   <si>
     <t>6.1 inch</t>
@@ -547,151 +538,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82C0B6-B55B-40B7-8DCB-60B61C6A25FE}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="27.77734375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.109375" style="5" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="23.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="27.77734375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45901</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
